--- a/Base/Backlog_24.xlsx
+++ b/Base/Backlog_24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08235EC2-A647-4825-A249-F6664BB1CBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24DA590-3095-4545-9AD8-345733C8927B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="29">
   <si>
     <t>Backlog</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Kleberson Matias</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -227,50 +230,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -298,7 +262,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,46 +302,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -695,11 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -715,46 +647,47 @@
     <col min="9" max="9" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="25"/>
+    </row>
+    <row r="2" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -776,20 +709,24 @@
       <c r="G2" s="9">
         <v>338021</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <v>45809</v>
       </c>
       <c r="I2" s="10">
         <v>45824</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="25">
+        <f>IF(J2="Resolvido",0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -811,20 +748,24 @@
       <c r="G3" s="9">
         <v>337991</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <v>45809</v>
       </c>
       <c r="I3" s="10">
         <v>45824</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="25">
+        <f t="shared" ref="L3:L24" si="0">IF(J3="Resolvido",0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -846,20 +787,24 @@
       <c r="G4" s="9">
         <v>337816</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <v>45809</v>
       </c>
       <c r="I4" s="10">
         <v>45824</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -881,7 +826,7 @@
       <c r="G5" s="9">
         <v>337347</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <v>45809</v>
       </c>
       <c r="I5" s="10">
@@ -893,8 +838,12 @@
       <c r="K5" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -916,7 +865,7 @@
       <c r="G6" s="9">
         <v>337883</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <v>45809</v>
       </c>
       <c r="I6" s="10">
@@ -928,8 +877,12 @@
       <c r="K6" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -951,7 +904,7 @@
       <c r="G7" s="9">
         <v>338125</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <v>45809</v>
       </c>
       <c r="I7" s="10">
@@ -963,8 +916,12 @@
       <c r="K7" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -986,20 +943,24 @@
       <c r="G8" s="9">
         <v>337838</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="21">
         <v>45809</v>
       </c>
       <c r="I8" s="10">
         <v>45824</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -1021,20 +982,24 @@
       <c r="G9" s="9">
         <v>337814</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <v>45809</v>
       </c>
       <c r="I9" s="10">
         <v>45824</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +1021,7 @@
       <c r="G10" s="9">
         <v>335352</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <v>45778</v>
       </c>
       <c r="I10" s="10">
@@ -1068,8 +1033,12 @@
       <c r="K10" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -1091,20 +1060,24 @@
       <c r="G11" s="9">
         <v>336725</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="21">
         <v>45778</v>
       </c>
       <c r="I11" s="10">
         <v>45824</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
@@ -1124,9 +1097,9 @@
         <v>45828</v>
       </c>
       <c r="G12" s="9">
-        <v>366994</v>
-      </c>
-      <c r="H12" s="22">
+        <v>336994</v>
+      </c>
+      <c r="H12" s="21">
         <v>45809</v>
       </c>
       <c r="I12" s="10">
@@ -1138,8 +1111,12 @@
       <c r="K12" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1161,20 +1138,24 @@
       <c r="G13" s="9">
         <v>338087</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="21">
         <v>45809</v>
       </c>
       <c r="I13" s="10">
         <v>45824</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -1196,20 +1177,24 @@
       <c r="G14" s="9">
         <v>337923</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="21">
         <v>45809</v>
       </c>
       <c r="I14" s="10">
         <v>45824</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
@@ -1231,7 +1216,7 @@
       <c r="G15" s="9">
         <v>337938</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="21">
         <v>45809</v>
       </c>
       <c r="I15" s="10">
@@ -1243,8 +1228,12 @@
       <c r="K15" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
@@ -1266,7 +1255,7 @@
       <c r="G16" s="9">
         <v>337530</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="21">
         <v>45809</v>
       </c>
       <c r="I16" s="10">
@@ -1278,8 +1267,12 @@
       <c r="K16" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
@@ -1301,20 +1294,24 @@
       <c r="G17" s="9">
         <v>337799</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="21">
         <v>45809</v>
       </c>
       <c r="I17" s="10">
         <v>45824</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +1333,7 @@
       <c r="G18" s="9">
         <v>338024</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="21">
         <v>45809</v>
       </c>
       <c r="I18" s="10">
@@ -1348,8 +1345,12 @@
       <c r="K18" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
@@ -1371,7 +1372,7 @@
       <c r="G19" s="9">
         <v>337014</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="21">
         <v>45809</v>
       </c>
       <c r="I19" s="10">
@@ -1382,6 +1383,10 @@
       </c>
       <c r="K19" s="9" t="s">
         <v>11</v>
+      </c>
+      <c r="L19" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1406,7 +1411,7 @@
       <c r="G20" s="9">
         <v>335326</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="21">
         <v>45778</v>
       </c>
       <c r="I20" s="10">
@@ -1418,8 +1423,12 @@
       <c r="K20" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -1441,20 +1450,24 @@
       <c r="G21" s="9">
         <v>338018</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="21">
         <v>45809</v>
       </c>
       <c r="I21" s="10">
         <v>45824</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
@@ -1476,7 +1489,7 @@
       <c r="G22" s="9">
         <v>338060</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="21">
         <v>45809</v>
       </c>
       <c r="I22" s="10">
@@ -1488,8 +1501,12 @@
       <c r="K22" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
@@ -1511,20 +1528,24 @@
       <c r="G23" s="9">
         <v>337738</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="21">
         <v>45809</v>
       </c>
       <c r="I23" s="10">
         <v>45824</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>4</v>
       </c>
@@ -1546,172 +1567,176 @@
       <c r="G24" s="9">
         <v>337872</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="21">
         <v>45809</v>
       </c>
       <c r="I24" s="10">
         <v>45824</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="2"/>
       <c r="I25" s="8"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="13"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="2"/>
       <c r="I26" s="8"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="13"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="2"/>
       <c r="I27" s="8"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="13"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="2"/>
       <c r="I28" s="8"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="13"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="2"/>
       <c r="I29" s="8"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="H31" s="2"/>
       <c r="I31" s="8"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="H32" s="2"/>
       <c r="I32" s="8"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="H33" s="2"/>
       <c r="I33" s="8"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="H34" s="2"/>
       <c r="I34" s="8"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="H35" s="2"/>
       <c r="I35" s="8"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="H36" s="2"/>
       <c r="I36" s="8"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="H37" s="2"/>
       <c r="I37" s="8"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="H38" s="2"/>
       <c r="I38" s="8"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="H39" s="2"/>
       <c r="I39" s="8"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="H40" s="2"/>
       <c r="I40" s="8"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="H41" s="2"/>
       <c r="I41" s="8"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="H42" s="2"/>
       <c r="I42" s="8"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="H43" s="2"/>
       <c r="I43" s="8"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="H44" s="2"/>
       <c r="I44" s="8"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="H45" s="2"/>
@@ -1861,11 +1886,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J45" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-    <filterColumn colId="7">
-      <filters>
-        <dateGroupItem year="2025" month="5" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J45">
       <sortCondition ref="B1:B45"/>
     </sortState>
@@ -1880,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1901,37 +1921,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="35" t="s">
+      <c r="I1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1939,262 +1959,262 @@
       <c r="A2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="27">
-        <v>2025</v>
-      </c>
-      <c r="D2" s="27">
-        <v>24</v>
-      </c>
-      <c r="E2" s="28">
-        <v>45824</v>
-      </c>
-      <c r="F2" s="28">
-        <v>45828</v>
-      </c>
-      <c r="G2" s="27">
+      <c r="C2" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D2" s="9">
+        <v>24</v>
+      </c>
+      <c r="E2" s="10">
+        <v>45824</v>
+      </c>
+      <c r="F2" s="10">
+        <v>45828</v>
+      </c>
+      <c r="G2" s="19">
         <v>337931</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="23">
         <v>45809</v>
       </c>
-      <c r="I2" s="28">
-        <v>45824</v>
-      </c>
-      <c r="J2" s="30" t="s">
+      <c r="I2" s="10">
+        <v>45824</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D3" s="9">
+        <v>24</v>
+      </c>
+      <c r="E3" s="10">
+        <v>45824</v>
+      </c>
+      <c r="F3" s="10">
+        <v>45828</v>
+      </c>
+      <c r="G3" s="22">
+        <v>336691</v>
+      </c>
+      <c r="H3" s="20">
+        <v>45778</v>
+      </c>
+      <c r="I3" s="10">
+        <v>45824</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D4" s="9">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10">
+        <v>45824</v>
+      </c>
+      <c r="F4" s="10">
+        <v>45828</v>
+      </c>
+      <c r="G4" s="22">
+        <v>337540</v>
+      </c>
+      <c r="H4" s="23">
+        <v>45809</v>
+      </c>
+      <c r="I4" s="10">
+        <v>45824</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D5" s="9">
+        <v>24</v>
+      </c>
+      <c r="E5" s="10">
+        <v>45824</v>
+      </c>
+      <c r="F5" s="10">
+        <v>45828</v>
+      </c>
+      <c r="G5" s="22">
+        <v>337972</v>
+      </c>
+      <c r="H5" s="23">
+        <v>45809</v>
+      </c>
+      <c r="I5" s="10">
+        <v>45824</v>
+      </c>
+      <c r="J5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K5" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="37">
-        <v>2025</v>
-      </c>
-      <c r="D3" s="37">
-        <v>24</v>
-      </c>
-      <c r="E3" s="38">
-        <v>45824</v>
-      </c>
-      <c r="F3" s="38">
-        <v>45828</v>
-      </c>
-      <c r="G3" s="36">
-        <v>336691</v>
-      </c>
-      <c r="H3" s="39">
-        <v>45778</v>
-      </c>
-      <c r="I3" s="38">
-        <v>45824</v>
-      </c>
-      <c r="J3" s="36" t="s">
+      <c r="B6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D6" s="9">
+        <v>24</v>
+      </c>
+      <c r="E6" s="10">
+        <v>45824</v>
+      </c>
+      <c r="F6" s="10">
+        <v>45828</v>
+      </c>
+      <c r="G6" s="19">
+        <v>337993</v>
+      </c>
+      <c r="H6" s="23">
+        <v>45809</v>
+      </c>
+      <c r="I6" s="10">
+        <v>45824</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K6" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="32">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="32">
-        <v>24</v>
-      </c>
-      <c r="E4" s="33">
-        <v>45824</v>
-      </c>
-      <c r="F4" s="33">
-        <v>45828</v>
-      </c>
-      <c r="G4" s="31">
-        <v>337540</v>
-      </c>
-      <c r="H4" s="34">
+      <c r="B7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D7" s="9">
+        <v>24</v>
+      </c>
+      <c r="E7" s="10">
+        <v>45824</v>
+      </c>
+      <c r="F7" s="10">
+        <v>45828</v>
+      </c>
+      <c r="G7" s="19">
+        <v>337182</v>
+      </c>
+      <c r="H7" s="20">
         <v>45809</v>
       </c>
-      <c r="I4" s="33">
-        <v>45824</v>
-      </c>
-      <c r="J4" s="31" t="s">
+      <c r="I7" s="10">
+        <v>45824</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K7" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="20">
-        <v>2025</v>
-      </c>
-      <c r="D5" s="20">
-        <v>24</v>
-      </c>
-      <c r="E5" s="26">
-        <v>45824</v>
-      </c>
-      <c r="F5" s="26">
-        <v>45828</v>
-      </c>
-      <c r="G5" s="23">
-        <v>337972</v>
-      </c>
-      <c r="H5" s="24">
+      <c r="B8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2025</v>
+      </c>
+      <c r="D8" s="9">
+        <v>24</v>
+      </c>
+      <c r="E8" s="10">
+        <v>45824</v>
+      </c>
+      <c r="F8" s="10">
+        <v>45828</v>
+      </c>
+      <c r="G8" s="19">
+        <v>337543</v>
+      </c>
+      <c r="H8" s="20">
         <v>45809</v>
       </c>
-      <c r="I5" s="26">
-        <v>45824</v>
-      </c>
-      <c r="J5" s="23" t="s">
+      <c r="I8" s="10">
+        <v>45824</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K8" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="20">
-        <v>2025</v>
-      </c>
-      <c r="D6" s="20">
-        <v>24</v>
-      </c>
-      <c r="E6" s="26">
-        <v>45824</v>
-      </c>
-      <c r="F6" s="26">
-        <v>45828</v>
-      </c>
-      <c r="G6" s="20">
-        <v>337993</v>
-      </c>
-      <c r="H6" s="24">
-        <v>45809</v>
-      </c>
-      <c r="I6" s="26">
-        <v>45824</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="20">
-        <v>2025</v>
-      </c>
-      <c r="D7" s="20">
-        <v>24</v>
-      </c>
-      <c r="E7" s="26">
-        <v>45824</v>
-      </c>
-      <c r="F7" s="26">
-        <v>45828</v>
-      </c>
-      <c r="G7" s="20">
-        <v>337182</v>
-      </c>
-      <c r="H7" s="21">
-        <v>45809</v>
-      </c>
-      <c r="I7" s="26">
-        <v>45824</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="20">
-        <v>2025</v>
-      </c>
-      <c r="D8" s="20">
-        <v>24</v>
-      </c>
-      <c r="E8" s="26">
-        <v>45824</v>
-      </c>
-      <c r="F8" s="26">
-        <v>45828</v>
-      </c>
-      <c r="G8" s="20">
-        <v>337543</v>
-      </c>
-      <c r="H8" s="21">
-        <v>45809</v>
-      </c>
-      <c r="I8" s="26">
-        <v>45824</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="25"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2203,7 +2223,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="25"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2216,7 +2236,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="25"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2229,7 +2249,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="25"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2242,7 +2262,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="25"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2255,7 +2275,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="25"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2407,11 +2427,11 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>

--- a/Base/Backlog_24.xlsx
+++ b/Base/Backlog_24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24DA590-3095-4545-9AD8-345733C8927B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02D95CF-8ED5-48B8-9355-FDBB5E716865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -628,10 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -687,7 +688,7 @@
       </c>
       <c r="L1" s="25"/>
     </row>
-    <row r="2" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -726,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -765,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -804,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -843,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -882,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -921,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -960,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>4</v>
       </c>
@@ -1584,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="11"/>
@@ -1592,7 +1593,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="12"/>
@@ -1600,7 +1601,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="12"/>
@@ -1608,7 +1609,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="12"/>
@@ -1616,7 +1617,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="12"/>
@@ -1624,7 +1625,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1638,105 +1639,105 @@
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="H31" s="2"/>
       <c r="I31" s="8"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="H32" s="2"/>
       <c r="I32" s="8"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="H33" s="2"/>
       <c r="I33" s="8"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="H34" s="2"/>
       <c r="I34" s="8"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="H35" s="2"/>
       <c r="I35" s="8"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="H36" s="2"/>
       <c r="I36" s="8"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="H37" s="2"/>
       <c r="I37" s="8"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="H38" s="2"/>
       <c r="I38" s="8"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="H39" s="2"/>
       <c r="I39" s="8"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="H40" s="2"/>
       <c r="I40" s="8"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="H41" s="2"/>
       <c r="I41" s="8"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="H42" s="2"/>
       <c r="I42" s="8"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="H43" s="2"/>
       <c r="I43" s="8"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="H44" s="2"/>
       <c r="I44" s="8"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="H45" s="2"/>
@@ -1886,6 +1887,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J45" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+    <filterColumn colId="7">
+      <filters>
+        <dateGroupItem year="2025" month="5" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Pendente"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J45">
       <sortCondition ref="B1:B45"/>
     </sortState>
@@ -1898,10 +1909,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1955,7 +1967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>14</v>
       </c>
@@ -1990,7 +2002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>14</v>
       </c>
@@ -2025,7 +2037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
@@ -2614,7 +2626,13 @@
       <c r="F67" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J8" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}"/>
+  <autoFilter ref="A1:J8" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Pendente"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
